--- a/Delay Model/OutPut/main2.xlsx
+++ b/Delay Model/OutPut/main2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k1759921\Documents\code\matlab\Optimization\Delay Model\OutPut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7DAAA78-383D-4381-943F-A78854FEB8F1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4BC4EA5C-1CD9-4FE9-BD32-9080FFA341BD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,14 +370,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO23" sqref="AO23"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1">
@@ -658,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>7200.3528113192897</v>
+        <v>14400.584156965457</v>
       </c>
       <c r="G3">
         <v>35.419635402131107</v>
@@ -789,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>7200.2768493358371</v>
+        <v>28801.168313930913</v>
       </c>
       <c r="G4">
         <v>50.559084110333721</v>
@@ -920,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>7200.4250743892908</v>
+        <v>36000</v>
       </c>
       <c r="G5">
         <v>63.691776342283461</v>
@@ -1051,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>7200.5023635897669</v>
+        <v>36000</v>
       </c>
       <c r="G6">
         <v>80.125040462947297</v>
@@ -1182,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>7200.2971512620652</v>
+        <v>36000</v>
       </c>
       <c r="G7">
         <v>92.558491497819318</v>
@@ -1313,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>7200.367136502251</v>
+        <v>36000</v>
       </c>
       <c r="G8">
         <v>109.12382233360522</v>
@@ -1444,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>7200.3864391757143</v>
+        <v>36000</v>
       </c>
       <c r="G9">
         <v>117.90214892920727</v>
@@ -1575,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>7200.4430370457385</v>
+        <v>36000</v>
       </c>
       <c r="G10">
         <v>132.05191926599736</v>
@@ -1706,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>7200.2920784827284</v>
+        <v>36000</v>
       </c>
       <c r="G11">
         <v>146.4236274435527</v>
@@ -1837,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>7200.3528113192897</v>
+        <v>36000</v>
       </c>
       <c r="G12">
         <v>159.98375551697632</v>
@@ -1968,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>7200.2768493358371</v>
+        <v>36000</v>
       </c>
       <c r="G13">
         <v>175.09087253973408</v>
@@ -2099,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>7200.4250743892908</v>
+        <v>36000</v>
       </c>
       <c r="G14">
         <v>187.70516181522964</v>
@@ -2230,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>7200.5023635897669</v>
+        <v>36000</v>
       </c>
       <c r="G15">
         <v>200.87676166864685</v>
@@ -2361,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>7200.2971512620652</v>
+        <v>36000</v>
       </c>
       <c r="G16">
         <v>213.2395213912751</v>
@@ -2492,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>7200.367136502251</v>
+        <v>36000</v>
       </c>
       <c r="G17">
         <v>224.1150235834418</v>
@@ -2623,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>7200.3864391757143</v>
+        <v>36000</v>
       </c>
       <c r="G18">
         <v>248.41749114457289</v>
@@ -2754,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>7200.4430370457385</v>
+        <v>36000</v>
       </c>
       <c r="G19">
         <v>281.4654056211927</v>
@@ -2885,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>7200.2920784827284</v>
+        <v>36000</v>
       </c>
       <c r="G20">
         <v>309.72275070529406</v>
